--- a/biology/Botanique/Condrieu_(AOC)/Condrieu_(AOC).xlsx
+++ b/biology/Botanique/Condrieu_(AOC)/Condrieu_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le condrieu[2] est un vin blanc d'appellation d'origine contrôlée produit sur la rive droite du Rhône, près de Condrieu, au sud de la ville de Vienne.
+Le condrieu est un vin blanc d'appellation d'origine contrôlée produit sur la rive droite du Rhône, près de Condrieu, au sud de la ville de Vienne.
 Il s'agit d'une appellation du vignoble de la vallée du Rhône septentrionale, entre les aires de production du côte-rôtie au nord et du saint-joseph au sud. Le vignoble du condrieu inclut celui de l'appellation château-grillet ; on ne produit que du vin blanc sur ces deux appellations, utilisant un seul cépage, le viognier, qui trouve ici son territoire d'élection.
 </t>
         </is>
@@ -515,16 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Condrieu, antique cité des mariniers, fut en relation avec les Phocéens de Massalia.
-Moyen Âge
-Période moderne
-Période contemporaine
-L'appellation d'origine contrôlée est obtenue le 27 avril 1940 ; le décret a été modifié depuis, la première fois en 1967.
-L'appellation doit beaucoup a Georges Vernay, surnommé « Le pape du Condrieu »[3], mondialement reconnu pour avoir sauvé le viognier et pour avoir donné l'élan à toute une génération de vignerons entre Condrieu et Ampuis, mais aussi pour avoir été à la tête du Syndicat de l'Appellation pendant près de 30 ans. Cette figure de Condrieu où il a grandi a toujours cru en ses terroirs alors que depuis l’après-guerre la culture de la vigne sur les coteaux est pratiquement abandonnée. 
-L’appellation Condrieu compte environ 6 hectares en 1960 contre environ 210 hectares aujourd'hui[4]. Georges Vernay décide de défricher dès 1953 et de faire revivre le cépage viognier sur les coteaux granitiques.
-La ville de Condrieu lui a rendu hommage en inaugurant une place à son nom : "Georges Vernay (1926-2017). Vigneron visionnaire, convaincu de l'exception de ce terroir. Il a fait renaître le viognier sur les coteaux de Condrieu."[5].
-Depuis 2012, ce vignoble fait partie du label Vignobles et Découvertes, visant à promouvoir les destinations œnotouristiques en France.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Condrieu, antique cité des mariniers, fut en relation avec les Phocéens de Massalia.
 </t>
         </is>
       </c>
@@ -550,12 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les premiers textes attestent Conriacus, au Xe siècle, puis de Condriaco, en 1251. Pour les toponymistes l'origine est à chercher dans le nom d'un homme gaulois *Comerius, variété de Comarius, avec le suffixe -acum[6].
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation d'origine contrôlée est obtenue le 27 avril 1940 ; le décret a été modifié depuis, la première fois en 1967.
+L'appellation doit beaucoup a Georges Vernay, surnommé « Le pape du Condrieu », mondialement reconnu pour avoir sauvé le viognier et pour avoir donné l'élan à toute une génération de vignerons entre Condrieu et Ampuis, mais aussi pour avoir été à la tête du Syndicat de l'Appellation pendant près de 30 ans. Cette figure de Condrieu où il a grandi a toujours cru en ses terroirs alors que depuis l’après-guerre la culture de la vigne sur les coteaux est pratiquement abandonnée. 
+L’appellation Condrieu compte environ 6 hectares en 1960 contre environ 210 hectares aujourd'hui. Georges Vernay décide de défricher dès 1953 et de faire revivre le cépage viognier sur les coteaux granitiques.
+La ville de Condrieu lui a rendu hommage en inaugurant une place à son nom : "Georges Vernay (1926-2017). Vigneron visionnaire, convaincu de l'exception de ce terroir. Il a fait renaître le viognier sur les coteaux de Condrieu.".
+Depuis 2012, ce vignoble fait partie du label Vignobles et Découvertes, visant à promouvoir les destinations œnotouristiques en France.
 </t>
         </is>
       </c>
@@ -581,19 +600,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-Le terroir de cette appellation, abrité des vents du nord, est composé de sables caillouteux ou de sols granitiques aux versants abrupts aménagés en terrasses.
-Géologie
-Les sols reposent sur du granite, à biotite ou à muscovite. Dans ce terroir dominent les terrasses retenant une terre acide composée de sable de type arène et de cailloutis d’une couleur gris clair à rosâtre ou roussâtre.
-Climatologie
-Ce terroir viticole est exposé plein sud avec des étés chauds et ensoleillés, des automnes doux et une pluviométrie bien étalée mais avec des hivers rigoureux, où la sensation de froid est renforcée par la bise. Son climat est de type semi-continental avec des influences méditerranéennes, la température moyenne annuelle a été, entre 1920 et 2008, de 11,7 °C avec un minimum de 2,8 °C en janvier et un maximum de 21 °C en juillet[7]. La température minimale y a été de -24,6 °C le 22 décembre 1938 et la plus élevée de 40,4 °C le 13 août 2003[8].
-L'ensoleillement y est de 1 976 heures par an en moyenne, soit environ 164 jours par an[9]. Les hivers sont relativement secs, et dépourvus de neige en plaine (toutefois de fortes précipitations ne sont pas exclues). Les frimas sont courants et les températures varient généralement d'une dizaine de degrés au plus pendant la journée. Les étés sont généralement chauds et secs : l'amplitude des températures en journée atteint parfois une vingtaine de degrés, et les températures maximales dépassent parfois les 35°. Le mois d'août est parfois frais et pluvieux (2006 et 2007) avec quelques orages et une légère brise qui disperse les polluants de l'air. Les mois d'août 2003 et 2009 étant au contraire très chauds et secs avec respectivement 33° et 30° de température maximale en moyenne. Le mistral souffle souvent, dû à a compression de l'air dans le sillon rhodanien. 
-Source : Le climat dans la région lyonnaise (en °C et mm, moyennes mensuelles 1920/2008 et records depuis 1920)[1]
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers textes attestent Conriacus, au Xe siècle, puis de Condriaco, en 1251. Pour les toponymistes l'origine est à chercher dans le nom d'un homme gaulois *Comerius, variété de Comarius, avec le suffixe -acum.
 </t>
         </is>
       </c>
@@ -619,38 +633,432 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terroir de cette appellation, abrité des vents du nord, est composé de sables caillouteux ou de sols granitiques aux versants abrupts aménagés en terrasses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols reposent sur du granite, à biotite ou à muscovite. Dans ce terroir dominent les terrasses retenant une terre acide composée de sable de type arène et de cailloutis d’une couleur gris clair à rosâtre ou roussâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole est exposé plein sud avec des étés chauds et ensoleillés, des automnes doux et une pluviométrie bien étalée mais avec des hivers rigoureux, où la sensation de froid est renforcée par la bise. Son climat est de type semi-continental avec des influences méditerranéennes, la température moyenne annuelle a été, entre 1920 et 2008, de 11,7 °C avec un minimum de 2,8 °C en janvier et un maximum de 21 °C en juillet. La température minimale y a été de -24,6 °C le 22 décembre 1938 et la plus élevée de 40,4 °C le 13 août 2003.
+L'ensoleillement y est de 1 976 heures par an en moyenne, soit environ 164 jours par an. Les hivers sont relativement secs, et dépourvus de neige en plaine (toutefois de fortes précipitations ne sont pas exclues). Les frimas sont courants et les températures varient généralement d'une dizaine de degrés au plus pendant la journée. Les étés sont généralement chauds et secs : l'amplitude des températures en journée atteint parfois une vingtaine de degrés, et les températures maximales dépassent parfois les 35°. Le mois d'août est parfois frais et pluvieux (2006 et 2007) avec quelques orages et une légère brise qui disperse les polluants de l'air. Les mois d'août 2003 et 2009 étant au contraire très chauds et secs avec respectivement 33° et 30° de température maximale en moyenne. Le mistral souffle souvent, dû à a compression de l'air dans le sillon rhodanien. 
+Source : Le climat dans la région lyonnaise (en °C et mm, moyennes mensuelles 1920/2008 et records depuis 1920)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur sept communes des départements du Rhône, de la Loire et de l’Ardèche : Condrieu dans le Rhône, Chavanay, Malleval, Saint-Michel-sur-Rhône, Saint-Pierre-de-Bœuf, Vérin dans la Loire, et Limony dans l'Ardèche (soit sept communes dans trois départements, mais concentrées dans une zone ne dépassant guère 15 km).
-Encépagement
-Cette AOC a pour particularité de n'être composée que d'un seul cépage, le viognier.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur sept communes des départements du Rhône, de la Loire et de l’Ardèche : Condrieu dans le Rhône, Chavanay, Malleval, Saint-Michel-sur-Rhône, Saint-Pierre-de-Bœuf, Vérin dans la Loire, et Limony dans l'Ardèche (soit sept communes dans trois départements, mais concentrées dans une zone ne dépassant guère 15 km).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette AOC a pour particularité de n'être composée que d'un seul cépage, le viognier.
 Comparaison de l'encépagement de l'AOC condrieu avec les autres appellations locales des côtes-du-rhône septentrionales
 Dans les décrets d'appellation, une division est faite entre le cépage majoritaire (indiqué par "M"), les variétés supplémentaires (indiqué par "S") et celles autorisées (indiqué par "(A)").
-Méthodes culturales
-Les parcelles, majoritairement en coteaux, sont alors plantées en chaillets, et sur échalas. Les autres peuvent être palissées.
-Vinification et élevage
-Terroir et vins
-Ce vignoble produit un vin blanc d’une robe d’or pâle aux reflets dorés. C'est un très grand vin, rare, coûteux et recherché, à boire jeune. Il est caractérisé par des arômes floraux marqués (principalement violette) et fruités (pêche blanche, abricot) où explosent des notes de bouquets champêtres, de violette et d’iris. Sa bouche souple, onctueuse et capiteuse allie une grande fraîcheur à une belle longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parcelles, majoritairement en coteaux, sont alors plantées en chaillets, et sur échalas. Les autres peuvent être palissées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vignoble produit un vin blanc d’une robe d’or pâle aux reflets dorés. C'est un très grand vin, rare, coûteux et recherché, à boire jeune. Il est caractérisé par des arômes floraux marqués (principalement violette) et fruités (pêche blanche, abricot) où explosent des notes de bouquets champêtres, de violette et d’iris. Sa bouche souple, onctueuse et capiteuse allie une grande fraîcheur à une belle longueur.
 Récemment, deux nouveautés (discutées par certains amateurs, plébiscitées par d'autres) ont été introduites : passage croissant au chêne neuf, vinification en vendanges tardives.
-Structure des exploitations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			AOC Condrieu Blanc, millésime 2012
 			AOC Condrieu Les Ravines
 			AOC Condrieu Domaine Pichat
 			AOC Condrieu de E. Guigal
 			AOC Condrieu Ortas
-Type de vins et gastronomie
-Ce vin se présente avec une robe d’or pâle aux reflets dorés. Au nez puissant mais élégant, il dégage un bouquet où dominent les fleurs champêtres, la violette et l’iris. Ces arômes se mêlent harmonieusement à celui de l’abricot caractéristique de ce cépage d’exception. D’une belle longueur en bouche, ce vin a atteint l’incomparable en 1990 lors d’une récolte unique en vendanges tardives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin se présente avec une robe d’or pâle aux reflets dorés. Au nez puissant mais élégant, il dégage un bouquet où dominent les fleurs champêtres, la violette et l’iris. Ces arômes se mêlent harmonieusement à celui de l’abricot caractéristique de ce cépage d’exception. D’une belle longueur en bouche, ce vin a atteint l’incomparable en 1990 lors d’une récolte unique en vendanges tardives.
 Il est à déguster avec les poissons du Rhône, la mousse de brochet, le boudin blanc, les anguilles grillées, les écrevisses, le foie gras, les grands fromages. La réputation et le lancement gastronomique de ses vins de collectionneurs doivent beaucoup au grand restaurant Fernand Point de Vienne (La Pyramide).
-Millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Millésimes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Commercialisation
-Le Condrieu dans la culture populaire
-Dans Vincent, François, Paul... et les autres, Yves Montand propose du Condrieu à ses amis le visitant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Condrieu_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Le Condrieu dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans Vincent, François, Paul... et les autres, Yves Montand propose du Condrieu à ses amis le visitant.
 Dans une chanson de Renaud il apporte à son père une bouteille de Condrieu
 </t>
         </is>
